--- a/contratos/contratos-8-2018.xlsx
+++ b/contratos/contratos-8-2018.xlsx
@@ -1075,7 +1075,7 @@
     <t>RESTAURANT LA DELFINA S.R.L.</t>
   </si>
   <si>
-    <t>BOFFELLI, MARIA INES</t>
+    <t>BOFFELLI. MARIA INES</t>
   </si>
   <si>
     <t>CIUCIO AGUSTIN IGNACIO</t>
@@ -1282,7 +1282,7 @@
     <t>PAROISSE RODOLFO DANIEL</t>
   </si>
   <si>
-    <t>PARPAGNOLI, PEDRO RICARDO</t>
+    <t>PARPAGNOLI. PEDRO RICARDO</t>
   </si>
   <si>
     <t>PIETROBONI DANIEL EDUARDO</t>
@@ -1324,10 +1324,10 @@
     <t>SANDOVAL GRISELDA LINA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
-  </si>
-  <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
+  </si>
+  <si>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1954,781 +1954,781 @@
     <t>205</t>
   </si>
   <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>15.990,00</t>
-  </si>
-  <si>
-    <t>3.612.000,00</t>
-  </si>
-  <si>
-    <t>1.188.000,00</t>
-  </si>
-  <si>
-    <t>85,00</t>
-  </si>
-  <si>
-    <t>517.629,80</t>
-  </si>
-  <si>
-    <t>1.297.100,00</t>
-  </si>
-  <si>
-    <t>43.200,00</t>
-  </si>
-  <si>
-    <t>192.993,00</t>
-  </si>
-  <si>
-    <t>3.750,00</t>
-  </si>
-  <si>
-    <t>620,00</t>
-  </si>
-  <si>
-    <t>6.304,00</t>
-  </si>
-  <si>
-    <t>10.980,00</t>
-  </si>
-  <si>
-    <t>545.980,88</t>
-  </si>
-  <si>
-    <t>590.076,12</t>
-  </si>
-  <si>
-    <t>20.400,00</t>
-  </si>
-  <si>
-    <t>399,00</t>
-  </si>
-  <si>
-    <t>23.002,20</t>
-  </si>
-  <si>
-    <t>10.944,00</t>
-  </si>
-  <si>
-    <t>154.478,30</t>
-  </si>
-  <si>
-    <t>4.700,00</t>
-  </si>
-  <si>
-    <t>10.671,80</t>
-  </si>
-  <si>
-    <t>118.574,13</t>
-  </si>
-  <si>
-    <t>26.773,00</t>
-  </si>
-  <si>
-    <t>23.600,00</t>
-  </si>
-  <si>
-    <t>36.057,90</t>
-  </si>
-  <si>
-    <t>132.797,00</t>
-  </si>
-  <si>
-    <t>10.300,00</t>
-  </si>
-  <si>
-    <t>5.890,00</t>
-  </si>
-  <si>
-    <t>2.350,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>3.580,00</t>
-  </si>
-  <si>
-    <t>2.381,00</t>
-  </si>
-  <si>
-    <t>759,11</t>
-  </si>
-  <si>
-    <t>288.776,00</t>
-  </si>
-  <si>
-    <t>140.741,00</t>
-  </si>
-  <si>
-    <t>2.568,00</t>
-  </si>
-  <si>
-    <t>36.948,71</t>
-  </si>
-  <si>
-    <t>30.995,00</t>
-  </si>
-  <si>
-    <t>7.816,50</t>
-  </si>
-  <si>
-    <t>919,87</t>
-  </si>
-  <si>
-    <t>99.715,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>3.054,00</t>
-  </si>
-  <si>
-    <t>264,48</t>
-  </si>
-  <si>
-    <t>243,11</t>
-  </si>
-  <si>
-    <t>351.903,00</t>
-  </si>
-  <si>
-    <t>618.610,00</t>
-  </si>
-  <si>
-    <t>11.988,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>249.440,88</t>
-  </si>
-  <si>
-    <t>12.995,98</t>
-  </si>
-  <si>
-    <t>341.867,90</t>
-  </si>
-  <si>
-    <t>109.805,00</t>
-  </si>
-  <si>
-    <t>2.978,63</t>
-  </si>
-  <si>
-    <t>1.476,88</t>
-  </si>
-  <si>
-    <t>2.839,00</t>
-  </si>
-  <si>
-    <t>28.748,00</t>
-  </si>
-  <si>
-    <t>10.486,75</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
-  </si>
-  <si>
-    <t>113.498,09</t>
-  </si>
-  <si>
-    <t>403.240,00</t>
-  </si>
-  <si>
-    <t>5.656,84</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>2.245,00</t>
-  </si>
-  <si>
-    <t>7.032,50</t>
-  </si>
-  <si>
-    <t>27.635,46</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>24.664,00</t>
-  </si>
-  <si>
-    <t>6.227,30</t>
-  </si>
-  <si>
-    <t>930,00</t>
-  </si>
-  <si>
-    <t>483,00</t>
-  </si>
-  <si>
-    <t>83,10</t>
-  </si>
-  <si>
-    <t>8.100,00</t>
-  </si>
-  <si>
-    <t>707,30</t>
-  </si>
-  <si>
-    <t>124,56</t>
-  </si>
-  <si>
-    <t>157.063,10</t>
-  </si>
-  <si>
-    <t>2.425,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>481.140,22</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>396,30</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>2.417,09</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>46.207,34</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>10.089,00</t>
-  </si>
-  <si>
-    <t>55.114,22</t>
-  </si>
-  <si>
-    <t>15.460,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>46.800,00</t>
-  </si>
-  <si>
-    <t>5.800,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>3.567,00</t>
-  </si>
-  <si>
-    <t>21.900,00</t>
-  </si>
-  <si>
-    <t>44.500,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>7.020,00</t>
-  </si>
-  <si>
-    <t>1.226,20</t>
-  </si>
-  <si>
-    <t>8.626,00</t>
-  </si>
-  <si>
-    <t>1.830,00</t>
-  </si>
-  <si>
-    <t>4.680,00</t>
-  </si>
-  <si>
-    <t>1.365,00</t>
-  </si>
-  <si>
-    <t>19.525,00</t>
-  </si>
-  <si>
-    <t>496,40</t>
-  </si>
-  <si>
-    <t>53.980,00</t>
-  </si>
-  <si>
-    <t>1.540,00</t>
-  </si>
-  <si>
-    <t>6.217,40</t>
-  </si>
-  <si>
-    <t>46.785,09</t>
-  </si>
-  <si>
-    <t>4.089,00</t>
-  </si>
-  <si>
-    <t>3,00</t>
-  </si>
-  <si>
-    <t>20.786,50</t>
-  </si>
-  <si>
-    <t>42.347,51</t>
-  </si>
-  <si>
-    <t>78,00</t>
-  </si>
-  <si>
-    <t>1.668,00</t>
-  </si>
-  <si>
-    <t>36.382,60</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>4.210,00</t>
-  </si>
-  <si>
-    <t>5.222,77</t>
-  </si>
-  <si>
-    <t>48.796,62</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>74,00</t>
-  </si>
-  <si>
-    <t>3.414,00</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>71.407,50</t>
-  </si>
-  <si>
-    <t>40.223,60</t>
-  </si>
-  <si>
-    <t>281.233,00</t>
-  </si>
-  <si>
-    <t>3.487,12</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>6.490,00</t>
-  </si>
-  <si>
-    <t>1.060,00</t>
-  </si>
-  <si>
-    <t>3.384,90</t>
-  </si>
-  <si>
-    <t>19.164,00</t>
-  </si>
-  <si>
-    <t>78.193,52</t>
-  </si>
-  <si>
-    <t>1.924,30</t>
-  </si>
-  <si>
-    <t>38.712,50</t>
-  </si>
-  <si>
-    <t>21.229,00</t>
-  </si>
-  <si>
-    <t>388,60</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>380,82</t>
-  </si>
-  <si>
-    <t>5.639,98</t>
-  </si>
-  <si>
-    <t>804,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>26.600,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>13.900,00</t>
-  </si>
-  <si>
-    <t>4.380,00</t>
-  </si>
-  <si>
-    <t>10.488,00</t>
-  </si>
-  <si>
-    <t>10.371,16</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>47.520,00</t>
-  </si>
-  <si>
-    <t>280.937,50</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>7.503,04</t>
-  </si>
-  <si>
-    <t>5.014,14</t>
-  </si>
-  <si>
-    <t>346,00</t>
-  </si>
-  <si>
-    <t>5.960,00</t>
-  </si>
-  <si>
-    <t>3.695,00</t>
-  </si>
-  <si>
-    <t>1.124,00</t>
-  </si>
-  <si>
-    <t>38.640,00</t>
-  </si>
-  <si>
-    <t>27.495,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>8.508,50</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>8.950,00</t>
-  </si>
-  <si>
-    <t>69.607,04</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>92.280,90</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>34.720,00</t>
-  </si>
-  <si>
-    <t>27.480,00</t>
-  </si>
-  <si>
-    <t>3.250,06</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>9.075,00</t>
-  </si>
-  <si>
-    <t>2.580,00</t>
-  </si>
-  <si>
-    <t>4.992,00</t>
-  </si>
-  <si>
-    <t>10.170,00</t>
-  </si>
-  <si>
-    <t>51,45</t>
-  </si>
-  <si>
-    <t>970,00</t>
-  </si>
-  <si>
-    <t>1.392,00</t>
-  </si>
-  <si>
-    <t>13.299,20</t>
-  </si>
-  <si>
-    <t>7.172,44</t>
-  </si>
-  <si>
-    <t>3.154,06</t>
-  </si>
-  <si>
-    <t>11.440,93</t>
-  </si>
-  <si>
-    <t>132.745,00</t>
-  </si>
-  <si>
-    <t>39.640,02</t>
-  </si>
-  <si>
-    <t>670,70</t>
-  </si>
-  <si>
-    <t>6.020,00</t>
-  </si>
-  <si>
-    <t>4.280,00</t>
-  </si>
-  <si>
-    <t>53.131,00</t>
-  </si>
-  <si>
-    <t>10.781,10</t>
-  </si>
-  <si>
-    <t>25.024,00</t>
-  </si>
-  <si>
-    <t>3.346,24</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>2.310,00</t>
-  </si>
-  <si>
-    <t>6.069,75</t>
-  </si>
-  <si>
-    <t>12.460,00</t>
-  </si>
-  <si>
-    <t>4.300,00</t>
-  </si>
-  <si>
-    <t>276,00</t>
-  </si>
-  <si>
-    <t>2.824,11</t>
-  </si>
-  <si>
-    <t>8.570,52</t>
-  </si>
-  <si>
-    <t>105.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>120.000,00</t>
-  </si>
-  <si>
-    <t>1.694,00</t>
-  </si>
-  <si>
-    <t>225.500,00</t>
-  </si>
-  <si>
-    <t>9.529.316,75</t>
-  </si>
-  <si>
-    <t>10.890,00</t>
-  </si>
-  <si>
-    <t>5.315,48</t>
-  </si>
-  <si>
-    <t>9.750,00</t>
-  </si>
-  <si>
-    <t>7.697.914,54</t>
-  </si>
-  <si>
-    <t>322.500,00</t>
-  </si>
-  <si>
-    <t>14.611.356,47</t>
-  </si>
-  <si>
-    <t>190.000,00</t>
-  </si>
-  <si>
-    <t>172.000,00</t>
-  </si>
-  <si>
-    <t>430.000,00</t>
-  </si>
-  <si>
-    <t>545.400,00</t>
-  </si>
-  <si>
-    <t>878.400,00</t>
-  </si>
-  <si>
-    <t>284.950,00</t>
-  </si>
-  <si>
-    <t>719.500,00</t>
-  </si>
-  <si>
-    <t>580.500,00</t>
-  </si>
-  <si>
-    <t>597.000,00</t>
-  </si>
-  <si>
-    <t>179.920,00</t>
-  </si>
-  <si>
-    <t>273.525,00</t>
-  </si>
-  <si>
-    <t>1.865.000,00</t>
-  </si>
-  <si>
-    <t>415.000,00</t>
-  </si>
-  <si>
-    <t>231.052,00</t>
-  </si>
-  <si>
-    <t>9.350,00</t>
-  </si>
-  <si>
-    <t>21.798.803,28</t>
-  </si>
-  <si>
-    <t>321.478,90</t>
-  </si>
-  <si>
-    <t>2.268.562,22</t>
-  </si>
-  <si>
-    <t>27.930,00</t>
-  </si>
-  <si>
-    <t>1.391,77</t>
-  </si>
-  <si>
-    <t>3.450,00</t>
-  </si>
-  <si>
-    <t>21.360,00</t>
-  </si>
-  <si>
-    <t>224.000,00</t>
-  </si>
-  <si>
-    <t>12.705,00</t>
-  </si>
-  <si>
-    <t>310.200,00</t>
-  </si>
-  <si>
-    <t>17.100,00</t>
-  </si>
-  <si>
-    <t>21.427,78</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>861,00</t>
-  </si>
-  <si>
-    <t>1.722,00</t>
-  </si>
-  <si>
-    <t>53.592,50</t>
-  </si>
-  <si>
-    <t>395.900,00</t>
-  </si>
-  <si>
-    <t>34.600,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>39.555,00</t>
-  </si>
-  <si>
-    <t>9.550,00</t>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>15990.00</t>
+  </si>
+  <si>
+    <t>3612000.00</t>
+  </si>
+  <si>
+    <t>1188000.00</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>517629.80</t>
+  </si>
+  <si>
+    <t>1297100.00</t>
+  </si>
+  <si>
+    <t>43200.00</t>
+  </si>
+  <si>
+    <t>192993.00</t>
+  </si>
+  <si>
+    <t>3750.00</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>6304.00</t>
+  </si>
+  <si>
+    <t>10980.00</t>
+  </si>
+  <si>
+    <t>545980.88</t>
+  </si>
+  <si>
+    <t>590076.12</t>
+  </si>
+  <si>
+    <t>20400.00</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>23002.20</t>
+  </si>
+  <si>
+    <t>10944.00</t>
+  </si>
+  <si>
+    <t>154478.30</t>
+  </si>
+  <si>
+    <t>4700.00</t>
+  </si>
+  <si>
+    <t>10671.80</t>
+  </si>
+  <si>
+    <t>118574.13</t>
+  </si>
+  <si>
+    <t>26773.00</t>
+  </si>
+  <si>
+    <t>23600.00</t>
+  </si>
+  <si>
+    <t>36057.90</t>
+  </si>
+  <si>
+    <t>132797.00</t>
+  </si>
+  <si>
+    <t>10300.00</t>
+  </si>
+  <si>
+    <t>5890.00</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>3580.00</t>
+  </si>
+  <si>
+    <t>2381.00</t>
+  </si>
+  <si>
+    <t>759.11</t>
+  </si>
+  <si>
+    <t>288776.00</t>
+  </si>
+  <si>
+    <t>140741.00</t>
+  </si>
+  <si>
+    <t>2568.00</t>
+  </si>
+  <si>
+    <t>36948.71</t>
+  </si>
+  <si>
+    <t>30995.00</t>
+  </si>
+  <si>
+    <t>7816.50</t>
+  </si>
+  <si>
+    <t>919.87</t>
+  </si>
+  <si>
+    <t>99715.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>3054.00</t>
+  </si>
+  <si>
+    <t>264.48</t>
+  </si>
+  <si>
+    <t>243.11</t>
+  </si>
+  <si>
+    <t>351903.00</t>
+  </si>
+  <si>
+    <t>618610.00</t>
+  </si>
+  <si>
+    <t>11988.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>249440.88</t>
+  </si>
+  <si>
+    <t>12995.98</t>
+  </si>
+  <si>
+    <t>341867.90</t>
+  </si>
+  <si>
+    <t>109805.00</t>
+  </si>
+  <si>
+    <t>2978.63</t>
+  </si>
+  <si>
+    <t>1476.88</t>
+  </si>
+  <si>
+    <t>2839.00</t>
+  </si>
+  <si>
+    <t>28748.00</t>
+  </si>
+  <si>
+    <t>10486.75</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>113498.09</t>
+  </si>
+  <si>
+    <t>403240.00</t>
+  </si>
+  <si>
+    <t>5656.84</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>2245.00</t>
+  </si>
+  <si>
+    <t>7032.50</t>
+  </si>
+  <si>
+    <t>27635.46</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>24664.00</t>
+  </si>
+  <si>
+    <t>6227.30</t>
+  </si>
+  <si>
+    <t>930.00</t>
+  </si>
+  <si>
+    <t>483.00</t>
+  </si>
+  <si>
+    <t>83.10</t>
+  </si>
+  <si>
+    <t>8100.00</t>
+  </si>
+  <si>
+    <t>707.30</t>
+  </si>
+  <si>
+    <t>124.56</t>
+  </si>
+  <si>
+    <t>157063.10</t>
+  </si>
+  <si>
+    <t>2425.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>481140.22</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>396.30</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>2417.09</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>46207.34</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>10089.00</t>
+  </si>
+  <si>
+    <t>55114.22</t>
+  </si>
+  <si>
+    <t>15460.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>46800.00</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>3567.00</t>
+  </si>
+  <si>
+    <t>21900.00</t>
+  </si>
+  <si>
+    <t>44500.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>7020.00</t>
+  </si>
+  <si>
+    <t>1226.20</t>
+  </si>
+  <si>
+    <t>8626.00</t>
+  </si>
+  <si>
+    <t>1830.00</t>
+  </si>
+  <si>
+    <t>4680.00</t>
+  </si>
+  <si>
+    <t>1365.00</t>
+  </si>
+  <si>
+    <t>19525.00</t>
+  </si>
+  <si>
+    <t>496.40</t>
+  </si>
+  <si>
+    <t>53980.00</t>
+  </si>
+  <si>
+    <t>1540.00</t>
+  </si>
+  <si>
+    <t>6217.40</t>
+  </si>
+  <si>
+    <t>46785.09</t>
+  </si>
+  <si>
+    <t>4089.00</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>20786.50</t>
+  </si>
+  <si>
+    <t>42347.51</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>1668.00</t>
+  </si>
+  <si>
+    <t>36382.60</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>4210.00</t>
+  </si>
+  <si>
+    <t>5222.77</t>
+  </si>
+  <si>
+    <t>48796.62</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>3414.00</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>71407.50</t>
+  </si>
+  <si>
+    <t>40223.60</t>
+  </si>
+  <si>
+    <t>281233.00</t>
+  </si>
+  <si>
+    <t>3487.12</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>6490.00</t>
+  </si>
+  <si>
+    <t>1060.00</t>
+  </si>
+  <si>
+    <t>3384.90</t>
+  </si>
+  <si>
+    <t>19164.00</t>
+  </si>
+  <si>
+    <t>78193.52</t>
+  </si>
+  <si>
+    <t>1924.30</t>
+  </si>
+  <si>
+    <t>38712.50</t>
+  </si>
+  <si>
+    <t>21229.00</t>
+  </si>
+  <si>
+    <t>388.60</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>380.82</t>
+  </si>
+  <si>
+    <t>5639.98</t>
+  </si>
+  <si>
+    <t>804.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>26600.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>13900.00</t>
+  </si>
+  <si>
+    <t>4380.00</t>
+  </si>
+  <si>
+    <t>10488.00</t>
+  </si>
+  <si>
+    <t>10371.16</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>47520.00</t>
+  </si>
+  <si>
+    <t>280937.50</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>7503.04</t>
+  </si>
+  <si>
+    <t>5014.14</t>
+  </si>
+  <si>
+    <t>346.00</t>
+  </si>
+  <si>
+    <t>5960.00</t>
+  </si>
+  <si>
+    <t>3695.00</t>
+  </si>
+  <si>
+    <t>1124.00</t>
+  </si>
+  <si>
+    <t>38640.00</t>
+  </si>
+  <si>
+    <t>27495.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>8508.50</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>8950.00</t>
+  </si>
+  <si>
+    <t>69607.04</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>92280.90</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>34720.00</t>
+  </si>
+  <si>
+    <t>27480.00</t>
+  </si>
+  <si>
+    <t>3250.06</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>9075.00</t>
+  </si>
+  <si>
+    <t>2580.00</t>
+  </si>
+  <si>
+    <t>4992.00</t>
+  </si>
+  <si>
+    <t>10170.00</t>
+  </si>
+  <si>
+    <t>51.45</t>
+  </si>
+  <si>
+    <t>970.00</t>
+  </si>
+  <si>
+    <t>1392.00</t>
+  </si>
+  <si>
+    <t>13299.20</t>
+  </si>
+  <si>
+    <t>7172.44</t>
+  </si>
+  <si>
+    <t>3154.06</t>
+  </si>
+  <si>
+    <t>11440.93</t>
+  </si>
+  <si>
+    <t>132745.00</t>
+  </si>
+  <si>
+    <t>39640.02</t>
+  </si>
+  <si>
+    <t>670.70</t>
+  </si>
+  <si>
+    <t>6020.00</t>
+  </si>
+  <si>
+    <t>4280.00</t>
+  </si>
+  <si>
+    <t>53131.00</t>
+  </si>
+  <si>
+    <t>10781.10</t>
+  </si>
+  <si>
+    <t>25024.00</t>
+  </si>
+  <si>
+    <t>3346.24</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>2310.00</t>
+  </si>
+  <si>
+    <t>6069.75</t>
+  </si>
+  <si>
+    <t>12460.00</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>276.00</t>
+  </si>
+  <si>
+    <t>2824.11</t>
+  </si>
+  <si>
+    <t>8570.52</t>
+  </si>
+  <si>
+    <t>105000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>120000.00</t>
+  </si>
+  <si>
+    <t>1694.00</t>
+  </si>
+  <si>
+    <t>225500.00</t>
+  </si>
+  <si>
+    <t>9529316.75</t>
+  </si>
+  <si>
+    <t>10890.00</t>
+  </si>
+  <si>
+    <t>5315.48</t>
+  </si>
+  <si>
+    <t>9750.00</t>
+  </si>
+  <si>
+    <t>7697914.54</t>
+  </si>
+  <si>
+    <t>322500.00</t>
+  </si>
+  <si>
+    <t>14611356.47</t>
+  </si>
+  <si>
+    <t>190000.00</t>
+  </si>
+  <si>
+    <t>172000.00</t>
+  </si>
+  <si>
+    <t>430000.00</t>
+  </si>
+  <si>
+    <t>545400.00</t>
+  </si>
+  <si>
+    <t>878400.00</t>
+  </si>
+  <si>
+    <t>284950.00</t>
+  </si>
+  <si>
+    <t>719500.00</t>
+  </si>
+  <si>
+    <t>580500.00</t>
+  </si>
+  <si>
+    <t>597000.00</t>
+  </si>
+  <si>
+    <t>179920.00</t>
+  </si>
+  <si>
+    <t>273525.00</t>
+  </si>
+  <si>
+    <t>1865000.00</t>
+  </si>
+  <si>
+    <t>415000.00</t>
+  </si>
+  <si>
+    <t>231052.00</t>
+  </si>
+  <si>
+    <t>9350.00</t>
+  </si>
+  <si>
+    <t>21798803.28</t>
+  </si>
+  <si>
+    <t>321478.90</t>
+  </si>
+  <si>
+    <t>2268562.22</t>
+  </si>
+  <si>
+    <t>27930.00</t>
+  </si>
+  <si>
+    <t>1391.77</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>21360.00</t>
+  </si>
+  <si>
+    <t>224000.00</t>
+  </si>
+  <si>
+    <t>12705.00</t>
+  </si>
+  <si>
+    <t>310200.00</t>
+  </si>
+  <si>
+    <t>17100.00</t>
+  </si>
+  <si>
+    <t>21427.78</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>861.00</t>
+  </si>
+  <si>
+    <t>1722.00</t>
+  </si>
+  <si>
+    <t>53592.50</t>
+  </si>
+  <si>
+    <t>395900.00</t>
+  </si>
+  <si>
+    <t>34600.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>39555.00</t>
+  </si>
+  <si>
+    <t>9550.00</t>
   </si>
 </sst>
 </file>
